--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2024\08-Agustus\sinta\gizisig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI 2023\gizisig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EF5B69-4D14-49FE-98F0-B3ADDC5E696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1096,9 +1095,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1154,7 +1153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,11 +1455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection sqref="A1:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
